--- a/需求文档/sp27_requirements.xlsx
+++ b/需求文档/sp27_requirements.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>需求分类</t>
   </si>
@@ -86,10 +86,10 @@
     <t/>
   </si>
   <si>
-    <t>【厂区管理-生产工艺管理-生产工艺】新增页面</t>
-  </si>
-  <si>
-    <t>1. 生产工序模块
+    <t>【厂区管理-生产工艺管理-生产工序】新增页面</t>
+  </si>
+  <si>
+    <t>生产工序模块
 字段增强
 MarkDown
 - 工序名称：增加唯一性校验（同一园区下不允许重复），长度限制（1-50字符）
@@ -98,7 +98,16 @@
 MarkDown
 - 删除限制：若工序已被生产工艺关联，点击删除时弹窗提示："该工序已被X个工艺使用，请先解除关联"
 - 权限规则：用户仅可操作其所属园区及下级园区的工序数据
-2. 生产工艺模块
+- 统一操作规范：
+  - 删除操作需二次确认（弹窗提示"确认删除XX吗？"）
+- 权限模型：基于RBAC，定义角色（如园区管理员、生产主管）及其数据范围
+- 数据隔离：所有模块的"所属园区"字段默认按用户权限过滤，不可越权操作</t>
+  </si>
+  <si>
+    <t>【厂区管理-生产工艺管理-生产工艺】新增页面</t>
+  </si>
+  <si>
+    <t>生产工艺模块
 工序列表交互
 MarkDown
 - 工序来源：仅显示同园区下状态为"启用"的工序
@@ -107,7 +116,16 @@
 数据一致性
 MarkDown
 - 若某工序被删除，关联工艺的工序列表自动移除该条目，并记录变更日志
-3. 生产线模块
+- 统一操作规范：
+  - 删除操作需二次确认（弹窗提示"确认删除XX吗？"）
+- 权限模型：基于RBAC，定义角色（如园区管理员、生产主管）及其数据范围
+- 数据隔离：所有模块的"所属园区"字段默认按用户权限过滤，不可越权操作</t>
+  </si>
+  <si>
+    <t>【厂区管理-生产工艺管理-生产线】新增页面</t>
+  </si>
+  <si>
+    <t>生产线模块
 级联逻辑明确化
 MarkDown
 - 生产工艺选项：仅展示同园区下状态为"启用"的工艺
@@ -116,7 +134,16 @@
 MarkDown
 - 设备多选交互：已选设备展示为Tag形式，支持删除单个设备
 - 设备状态同步：若设备在台账中被禁用，生产线详情页展示"设备已停用"标识
-4. 班次管理模块
+- 统一操作规范：
+  - 删除操作需二次确认（弹窗提示"确认删除XX吗？"）
+- 权限模型：基于RBAC，定义角色（如园区管理员、生产主管）及其数据范围
+- 数据隔离：所有模块的"所属园区"字段默认按用户权限过滤，不可越权操作</t>
+  </si>
+  <si>
+    <t>【厂区管理-生产工艺管理-班次管理】新增页面</t>
+  </si>
+  <si>
+    <t>班次管理模块
 时间校验增强
 MarkDown
 - 自动计算校验：当用户修改时间时，实时检查24小时总和，不足则标红差值（如"当前总和22小时，还需补充2小时"）
@@ -125,33 +152,10 @@
 MarkDown
 - 删除拦截：若班次已被排班计划使用，提示"该班次已被X个排班引用，无法删除"
 - 历史数据追溯：提供"班次使用记录"查看入口，展示关联的排班计划ID
-三、全局性优化建议
-1. 数据权限体系
-MarkDown
-- 权限模型：基于RBAC，定义角色（如园区管理员、生产主管）及其数据范围
-- 数据隔离：所有模块的"所属园区"字段默认按用户权限过滤，不可越权操作
-2. 交互一致性
-MarkDown
 - 统一操作规范：
   - 删除操作需二次确认（弹窗提示"确认删除XX吗？"）
-  - 列表页默认按最后修改时间倒序排列
-  - 所有"描述"字段支持Markdown格式
-3. 非功能需求补充
-MarkDown
-- 性能要求：
-  - 列表加载时间≤2秒（数据量＜1万条）
-  - 工序拖动排序响应时间≤500ms
-- 审计要求：
-  - 记录关键操作日志（如"用户A删除了生产线B"）
-  - 提供数据版本快照，支持回滚至72小时内任意版本
-4. 术语与字段统一
-MarkDown
-- 所有"说明"字段统一更名为"描述"
-- 所有时间字段明确格式（如"开始时间"格式为HH:mm）
-四、关键风险提示
-工序排序依赖风险：若生产工艺依赖工序顺序，需在接口设计时保留排序权重字段（如order: 1,2,3...）。
-时间校验复杂度：班次24小时校验需考虑跨天场景（如晚班22:00-次日06:00）。
-设备状态同步延迟：生产线设备状态与台账系统需保持实时同步（建议采用Webhook通知机制）。</t>
+- 权限模型：基于RBAC，定义角色（如园区管理员、生产主管）及其数据范围
+- 数据隔离：所有模块的"所属园区"字段默认按用户权限过滤，不可越权操作</t>
   </si>
 </sst>
 </file>
@@ -1325,13 +1329,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
@@ -1386,7 +1390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="409.5" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="243" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1401,6 +1405,57 @@
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="229.5" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="229.5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="243" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
